--- a/Transdict1.xlsx
+++ b/Transdict1.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\DispatchOptimisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0308D8B0-98D2-4823-ABCA-17CB8E6ED2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF768C96-A175-41CE-8BA6-4D45CBEA5FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -186,17 +197,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9439985351115455E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -485,20 +486,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -515,7 +516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -549,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -566,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -584,7 +585,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -602,7 +603,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -620,7 +621,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -638,7 +639,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -656,7 +657,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -674,7 +675,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -692,7 +693,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -710,7 +711,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -727,7 +728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -744,7 +745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -761,7 +762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -778,7 +779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -795,7 +796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -812,7 +813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -829,7 +830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -848,7 +849,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:A16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
